--- a/biology/Botanique/Monique_Keraudren/Monique_Keraudren.xlsx
+++ b/biology/Botanique/Monique_Keraudren/Monique_Keraudren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monique Keraudren (ou Monique Keraudren-Aymonin), née le 8 décembre 1928 à Camaret-sur-Mer (Finistère) et morte le 25 mai 1981 à Paris, est une botaniste française, spécialiste de la flore de Madagascar et des Comores, également du Cameroun.
-Sa thèse, soutenue à Paris en 1966, porte sur les cucurbitacées de Madagascar[1]. Sa 2e thèse s'intitule Les Flores sèches de l'Ancien Monde[2].
+Sa thèse, soutenue à Paris en 1966, porte sur les cucurbitacées de Madagascar. Sa 2e thèse s'intitule Les Flores sèches de l'Ancien Monde.
 Monique Keraudren fut l'épouse du botaniste Gérard-Guy Aymonin, son collègue au Muséum national d'histoire naturelle.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Flore de Madagascar et des Comores (plantes vasculaires), 1955-1967
 Flore du Cameroun, vol. 6, Cucurbitacées, 1967
@@ -545,7 +559,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les épithètes spécifiques de plusieurs espèces lui rendent hommage, telles que : Begonia keraudreniae, Ipomoea keraudreniae, Polyalthia keraudreniae, Socratina keraudreniana, Stapelianthus keraudreniae, Vigna keraudrenii.
 </t>
